--- a/src/test/resources/kustom_erillishaku.xlsx
+++ b/src/test/resources/kustom_erillishaku.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11720" yWindow="2320" windowWidth="25600" windowHeight="18020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,31 +19,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>sukunimi</t>
-  </si>
-  <si>
-    <t>etunimi</t>
-  </si>
-  <si>
-    <t>hetu</t>
-  </si>
-  <si>
-    <t>11.11.2011</t>
-  </si>
-  <si>
-    <t>HYLATTY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>Hakkarainen</t>
+  </si>
+  <si>
+    <t>Tuomas</t>
+  </si>
+  <si>
+    <t>010101-123N</t>
+  </si>
+  <si>
+    <t>1.1.1901</t>
+  </si>
+  <si>
+    <t>HYVAKSYTTY</t>
+  </si>
+  <si>
+    <t>KESKEN</t>
+  </si>
+  <si>
+    <t>JULKAISTAVISSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -66,13 +95,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -402,33 +436,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/src/test/resources/kustom_erillishaku.xlsx
+++ b/src/test/resources/kustom_erillishaku.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
-  <fileRecoveryPr repairLoad="1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>Hakkarainen</t>
   </si>
@@ -29,6 +20,17 @@
   </si>
   <si>
     <t>010101-123N</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="11"/>
+        <color indexed="10"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>tuomas.hakkarainen@example.com</t>
+    </r>
   </si>
   <si>
     <t>1.1.1901</t>
@@ -46,21 +48,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,7 +93,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -79,133 +101,118 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Blank">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="404040"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="BFBFBF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="499BC9"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="6EC038"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="F1D130"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFA93A"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF2D21"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="6C2085"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Blank">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:latin typeface="Helvetica"/>
+        <a:ea typeface="Helvetica"/>
+        <a:cs typeface="Helvetica"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -242,7 +249,52 @@
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="129999"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="129999"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -261,7 +313,28 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="105000"/>
+              <a:satMod val="104999"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="104999"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -282,7 +355,34 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+              <a:srgbClr val="000000">
+                <a:alpha val="50000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -291,7 +391,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -300,26 +400,63 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -373,90 +510,1046 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:blipFill rotWithShape="1">
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+                <a:srgbClr val="000000">
+                  <a:alpha val="31034"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="6350" cap="flat">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:noAutofit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
       <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
+    <a:txDef>
+      <a:spPr>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </a:spPr>
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+        <a:spAutoFit/>
+      </a:bodyPr>
+      <a:lstStyle>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica"/>
+          </a:defRPr>
+        </a:defPPr>
+        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl1pPr>
+        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl2pPr>
+        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl3pPr>
+        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl4pPr>
+        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl5pPr>
+        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl6pPr>
+        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl7pPr>
+        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl8pPr>
+        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+          </a:defRPr>
+        </a:lvl9pPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="none"/>
+      </a:style>
+    </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="256" width="9.375" style="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="3"/>
+      <c r="G1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="H1" t="s" s="2">
         <v>6</v>
       </c>
+      <c r="I1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="19" customHeight="1">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" ht="19" customHeight="1">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" ht="19" customHeight="1">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" ht="19" customHeight="1">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" ht="19" customHeight="1">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" ht="19" customHeight="1">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" ht="19" customHeight="1">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" ht="19" customHeight="1">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" ht="19" customHeight="1">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <hyperlinks>
+    <hyperlink ref="D1" r:id="rId1" location="" tooltip="" display=""/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/src/test/resources/kustom_erillishaku.xlsx
+++ b/src/test/resources/kustom_erillishaku.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Hakkarainen</t>
   </si>
@@ -24,7 +32,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -44,15 +52,15 @@
   <si>
     <t>JULKAISTAVISSA</t>
   </si>
+  <si>
+    <t>EI_TEHTY</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -60,16 +68,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -79,7 +77,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -118,52 +116,97 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -355,7 +398,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -364,7 +407,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -373,7 +416,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -382,7 +425,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -391,7 +434,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -400,7 +443,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -512,8 +555,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -521,14 +564,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -547,7 +590,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -555,7 +598,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -583,7 +626,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -609,7 +652,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -635,7 +678,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -661,7 +704,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -687,7 +730,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -713,7 +756,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -739,7 +782,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -765,7 +808,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -791,7 +834,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -804,9 +847,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -822,7 +871,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -841,7 +890,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,7 +916,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -893,7 +942,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -919,7 +968,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -945,7 +994,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -971,7 +1020,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1046,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1023,7 +1072,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1049,7 +1098,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1075,7 +1124,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1088,9 +1137,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1103,7 +1158,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1122,7 +1177,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1152,7 +1207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1178,7 +1233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1204,7 +1259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1230,7 +1285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1256,7 +1311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1282,7 +1337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1308,7 +1363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1334,7 +1389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1360,7 +1415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1373,68 +1428,67 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="17" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3"/>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="2">
-        <v>6</v>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1">
+    <row r="2" spans="1:10" ht="19" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1446,7 +1500,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
-    <row r="3" ht="19" customHeight="1">
+    <row r="3" spans="1:10" ht="19" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1458,7 +1512,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:10" ht="19" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1470,7 +1524,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1482,7 +1536,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1494,7 +1548,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1506,7 +1560,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1518,7 +1572,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1530,7 +1584,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1544,12 +1598,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/kustom_erillishaku.xlsx
+++ b/src/test/resources/kustom_erillishaku.xlsx
@@ -1,25 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
     <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Hakkarainen</t>
   </si>
@@ -32,7 +24,7 @@
   <si>
     <r>
       <rPr>
-        <u/>
+        <u val="single"/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -44,23 +36,32 @@
     <t>1.1.1901</t>
   </si>
   <si>
+    <t>MIES</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
     <t>HYVAKSYTTY</t>
   </si>
   <si>
     <t>KESKEN</t>
   </si>
   <si>
-    <t>JULKAISTAVISSA</t>
+    <t>EI_TEHTY</t>
   </si>
   <si>
-    <t>EI_TEHTY</t>
+    <t>JULKAISTAVISSA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -69,7 +70,17 @@
     <font>
       <sz val="12"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
     </font>
     <font>
       <sz val="11"/>
@@ -77,9 +88,14 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color indexed="10"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -116,97 +132,52 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="001FB714"/>
-      <rgbColor rgb="000000D4"/>
-      <rgbColor rgb="00FCF305"/>
-      <rgbColor rgb="00F20884"/>
-      <rgbColor rgb="0000ABEA"/>
-      <rgbColor rgb="00900000"/>
-      <rgbColor rgb="00006411"/>
-      <rgbColor rgb="00000090"/>
-      <rgbColor rgb="0090713A"/>
-      <rgbColor rgb="004600A5"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0063AAFE"/>
-      <rgbColor rgb="00DD2D32"/>
-      <rgbColor rgb="00FFF58C"/>
-      <rgbColor rgb="004EE257"/>
-      <rgbColor rgb="006711FF"/>
-      <rgbColor rgb="00FEA746"/>
-      <rgbColor rgb="00865357"/>
-      <rgbColor rgb="00A2BD90"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -398,7 +369,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -407,7 +378,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -416,7 +387,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -425,7 +396,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -434,7 +405,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -443,7 +414,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -555,8 +526,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -564,14 +535,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -590,7 +561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -598,7 +569,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -626,7 +597,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -652,7 +623,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -678,7 +649,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +675,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -730,7 +701,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -756,7 +727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -782,7 +753,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -808,7 +779,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -834,7 +805,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,15 +818,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -871,7 +836,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -890,7 +855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +881,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +907,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +933,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +959,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +985,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +1011,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +1037,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1063,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1124,7 +1089,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1137,15 +1102,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1158,7 +1117,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1177,7 +1136,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1207,7 +1166,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1233,7 +1192,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1259,7 +1218,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1285,7 +1244,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,7 +1270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1337,7 +1296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1363,7 +1322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1389,7 +1348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1415,7 +1374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1428,67 +1387,76 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
+    <col min="13" max="256" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17" customHeight="1">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="17" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s" s="2">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s" s="2">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s" s="2">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s" s="2">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="2" t="s">
+      <c r="F1" t="s" s="2">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" t="s" s="2">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
+      <c r="K1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s" s="2">
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19" customHeight="1">
+    <row r="2" ht="19" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1499,8 +1467,10 @@
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="19" customHeight="1">
+    <row r="3" ht="19" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1511,8 +1481,10 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="19" customHeight="1">
+    <row r="4" ht="19" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1523,8 +1495,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="19" customHeight="1">
+    <row r="5" ht="19" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1535,8 +1509,10 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:10" ht="19" customHeight="1">
+    <row r="6" ht="19" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1547,8 +1523,10 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:10" ht="19" customHeight="1">
+    <row r="7" ht="19" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1559,8 +1537,10 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
     </row>
-    <row r="8" spans="1:10" ht="19" customHeight="1">
+    <row r="8" ht="19" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1571,8 +1551,10 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:10" ht="19" customHeight="1">
+    <row r="9" ht="19" customHeight="1">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1583,8 +1565,10 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:10" ht="19" customHeight="1">
+    <row r="10" ht="19" customHeight="1">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1595,20 +1579,17 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1"/>
+    <hyperlink ref="D1" r:id="rId1" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup scale="25" orientation="portrait"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/src/test/resources/kustom_erillishaku.xlsx
+++ b/src/test/resources/kustom_erillishaku.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petur1/git/valintaperusteet/valintalaskentakoostepalvelu/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Hakkarainen</t>
   </si>
@@ -24,7 +40,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="11"/>
         <color indexed="10"/>
         <rFont val="Calibri"/>
@@ -53,15 +69,15 @@
   <si>
     <t>JULKAISTAVISSA</t>
   </si>
+  <si>
+    <t>Ei</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -69,16 +85,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -88,7 +94,7 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color indexed="10"/>
       <name val="Calibri"/>
@@ -132,52 +138,106 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -369,7 +429,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -378,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -387,7 +447,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -396,7 +456,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -405,7 +465,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -414,7 +474,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -526,8 +586,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -535,14 +595,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -561,7 +621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -569,7 +629,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -597,7 +657,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -623,7 +683,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -649,7 +709,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -675,7 +735,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -701,7 +761,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -727,7 +787,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -753,7 +813,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -779,7 +839,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -805,7 +865,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -818,9 +878,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -836,7 +902,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -855,7 +921,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -881,7 +947,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -907,7 +973,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -933,7 +999,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -959,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +1051,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1011,7 +1077,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1037,7 +1103,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1063,7 +1129,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1089,7 +1155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1102,9 +1168,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1117,7 +1189,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1136,7 +1208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1166,7 +1238,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1192,7 +1264,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1218,7 +1290,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1244,7 +1316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1270,7 +1342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1296,7 +1368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1322,7 +1394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1348,7 +1420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1374,7 +1446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1387,76 +1459,76 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:L10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IW10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="9.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="1" customWidth="1"/>
-    <col min="13" max="256" width="9.375" style="1" customWidth="1"/>
+    <col min="1" max="257" width="9.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="3"/>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1">
+    <row r="2" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1469,8 +1541,9 @@
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
-    <row r="3" ht="19" customHeight="1">
+    <row r="3" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1483,8 +1556,9 @@
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
-    <row r="4" ht="19" customHeight="1">
+    <row r="4" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1497,8 +1571,9 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
     </row>
-    <row r="5" ht="19" customHeight="1">
+    <row r="5" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1511,8 +1586,9 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
     </row>
-    <row r="6" ht="19" customHeight="1">
+    <row r="6" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1525,8 +1601,9 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
     </row>
-    <row r="7" ht="19" customHeight="1">
+    <row r="7" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
@@ -1539,8 +1616,9 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
     </row>
-    <row r="8" ht="19" customHeight="1">
+    <row r="8" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1553,8 +1631,9 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
     </row>
-    <row r="9" ht="19" customHeight="1">
+    <row r="9" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1567,8 +1646,9 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
     </row>
-    <row r="10" ht="19" customHeight="1">
+    <row r="10" spans="1:13" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1581,13 +1661,14 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D1" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="D1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="25" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup scale="25" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Helvetica,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>

--- a/src/test/resources/kustom_erillishaku.xlsx
+++ b/src/test/resources/kustom_erillishaku.xlsx
@@ -70,7 +70,7 @@
     <t>JULKAISTAVISSA</t>
   </si>
   <si>
-    <t>Ei</t>
+    <t>Kyllä</t>
   </si>
 </sst>
 </file>
